--- a/Neuro_info_1/analysis/analytics.xlsx
+++ b/Neuro_info_1/analysis/analytics.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Github\Neuro_info_1\Neuro_info_1\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6AE61-F8C3-429C-B0B3-A8DC7942A390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8701BA-DF94-409F-A8A6-C65CB5144268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +48,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,17 +96,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,7 +610,550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> количества ошибок от количества помех </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31501377952755905"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$35:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$35:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90166666666666662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90666666666666662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64166666666666672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3F1-44E7-AFF9-6520C1970E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1163589232"/>
+        <c:axId val="1163590672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1163589232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> помех</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1163590672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1163590672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Процент ошибок</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1163589232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1145,6 +1709,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1178,6 +2258,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A5E97B-8BD4-C4F8-6256-DFF2F7FEE114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1449,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,6 +2666,246 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+      <c r="D35" s="2">
+        <f>B35/C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>148</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D50" si="0">B36/C36</f>
+        <v>0.24666666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>242</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40333333333333332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>336</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>443</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73833333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>503</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83833333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>531</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>541</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90166666666666662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>544</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>537</v>
+      </c>
+      <c r="C44">
+        <v>600</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>493</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82166666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>456</v>
+      </c>
+      <c r="C46">
+        <v>600</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>385</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64166666666666672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>229</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38166666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>114</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Neuro_info_1/analysis/analytics.xlsx
+++ b/Neuro_info_1/analysis/analytics.xlsx
@@ -1,43 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Github\Neuro_info_1\Neuro_info_1\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6AE61-F8C3-429C-B0B3-A8DC7942A390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FE25F-7878-4399-9ADF-6A5A43780BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>количество помех</t>
   </si>
   <si>
-    <t>Количество ошибок на обучающей выборке (из 300)</t>
+    <t>Количество ошибок на обучающей выборке нейрон</t>
+  </si>
+  <si>
+    <t>Количество ошибок на обучающей выборке персептрон</t>
+  </si>
+  <si>
+    <t>Выборка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,18 +101,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,11 +256,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Количество ошибок на обучающей выборке (из 300)</c:v>
+                  <c:v>Количество ошибок на обучающей выборке нейрон</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -282,22 +329,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -589,7 +636,1123 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнительный анализ помехоустойчивости</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> персептрона и искусственного нейрона</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество ошибок на обучающей выборке нейрон</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ABA-4BB5-A51D-9FE90300472D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество ошибок на обучающей выборке персептрон</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ABA-4BB5-A51D-9FE90300472D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1653370304"/>
+        <c:axId val="1653371744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1653370304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653371744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653371744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653370304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество ошибок на обучающей выборке нейрон</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$55:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$55:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-462C-4CAE-B16F-E1E295E0349F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество ошибок на обучающей выборке персептрон</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$55:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$55:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6666666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3333333333333339E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-462C-4CAE-B16F-E1E295E0349F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1597617472"/>
+        <c:axId val="1597591072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1597617472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597591072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1597591072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597617472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1145,19 +2308,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1178,6 +3373,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1325880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BED480D-AB92-4AA7-475D-E39A8327E76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5BF3F6-0716-BB48-CACE-568DF1430AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1449,108 +3716,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2/300</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/300</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:E18" si="0">B3/300</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15666666666666668</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>47</v>
       </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15666666666666668</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16333333333333333</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
+      <c r="C10" s="3">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>300</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <f>B55/300</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <f>C55/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="3">
+        <v>29</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" ref="D56:D71" si="1">B56/300</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" ref="E56:E71" si="2">C56/300</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>65</v>
+      </c>
+      <c r="C57" s="3">
+        <v>74</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24666666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3">
+        <v>82</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27333333333333332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>94</v>
+      </c>
+      <c r="C59" s="3">
+        <v>107</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35666666666666669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>93</v>
+      </c>
+      <c r="C60" s="3">
+        <v>109</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36333333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>98</v>
+      </c>
+      <c r="C61" s="3">
+        <v>107</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35666666666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>98</v>
+      </c>
+      <c r="C62" s="3">
+        <v>116</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="2"/>
+        <v>0.38666666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>100</v>
+      </c>
+      <c r="C63" s="3">
+        <v>108</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1">
+        <v>87</v>
+      </c>
+      <c r="C64" s="3">
+        <v>105</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>10</v>
+      </c>
+      <c r="B65" s="3">
+        <v>81</v>
+      </c>
+      <c r="C65" s="3">
+        <v>95</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" s="3">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3">
+        <v>88</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29333333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>12</v>
+      </c>
+      <c r="B67" s="3">
+        <v>77</v>
+      </c>
+      <c r="C67" s="3">
+        <v>88</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25666666666666665</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29333333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3">
+        <v>60</v>
+      </c>
+      <c r="C68" s="3">
+        <v>73</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24333333333333335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" s="3">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3">
+        <v>19</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="2"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>15</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="4">
+        <v>300</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B71:C71"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
